--- a/log/1步工序无错误-1,1,1,1,1,1,1,1空载日志.xlsx
+++ b/log/1步工序无错误-1,1,1,1,1,1,1,1空载日志.xlsx
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1464</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1569</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1642</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1698</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1771</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1827</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1900</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1925</v>
+        <v>2028</v>
       </c>
     </row>
   </sheetData>
